--- a/test-1/NUTS-2.xlsx
+++ b/test-1/NUTS-2.xlsx
@@ -14,7 +14,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
-    <t>NUTS_2</t>
+    <t>NUTS2</t>
   </si>
   <si>
     <t>pocet_zaku</t>
